--- a/biology/Botanique/Callidiini/Callidiini.xlsx
+++ b/biology/Botanique/Callidiini/Callidiini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Callidiini ou callidiens sont une tribu de coléoptères cérambycidés cérambycinés répandus sur la quasi-totalité de la planète.
 </t>
@@ -511,9 +523,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Callidiini sont caractérisés par un aspect aplati, les cavités cotyloïdes antérieures transverses et ouvertes en arrière, le prothorax sans épine latérale et les yeux à facettes fines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Callidiini sont caractérisés par un aspect aplati, les cavités cotyloïdes antérieures transverses et ouvertes en arrière, le prothorax sans épine latérale et les yeux à facettes fines.
 Les espèces plus primitives ont une coloration noir mat, tandis que les autres ont des jolies colorations métalliques ou variées de jaune et de rouge, qui ont donné le nom à la tribu (Kalòs en Grec ancien signifie beau).
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Callidiini sont représentés dans le monde entier, sauf dans le sud-est de l'Asie, avec environ 25 genres et 150 espèces. 
-En France, Belgique et Luxembourg ils ne comprennent que les genres suivants[1],[2]:
+En France, Belgique et Luxembourg ils ne comprennent que les genres suivants,:
 Callidiellum Linsley, 1940 (jadis introduit en France)
 Callidium Fabricius, 1775
 Hylotrupes Audinet-Serville, 1834 - une seule espèce: le capricorne des maisons
@@ -556,7 +572,7 @@
 Pyrrhidium Fairmaire, 1864
 Ropalopus Mulsant, 1839
 Semanotus Mulsant, 1839
-La tribu est absente des Antilles françaises[3], bien qu'elle soit présente dans le continent américain.
+La tribu est absente des Antilles françaises, bien qu'elle soit présente dans le continent américain.
 </t>
         </is>
       </c>
